--- a/pocs.xlsx
+++ b/pocs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F4CB72-188E-4400-AE70-D743FD8A34B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A492251-135C-4A91-AB0A-2296B20B6EFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>spring aop without spring dependency injection</t>
+  </si>
+  <si>
+    <r>
+      <t>Refer definitions/spring/aop/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/spring-aop-without-spring-dependency-injection.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>throw errors/warning using aspectj aspect</t>
+  </si>
+  <si>
+    <r>
+      <t>Refer definitions/spring/aop/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/errors-warnings.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>spring aop aspect - DebugInterceptor</t>
+  </si>
+  <si>
+    <t>retry aspect</t>
+  </si>
+  <si>
+    <r>
+      <t>Refer definitions/spring/aop/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/debug-interceptor.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Refer definitions/spring/aop/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/retry-aspect.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>circuit breaker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/circuit-breaker-pointcut.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/circuit-breaker-advice.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>Flush JPA cache before jdbc call</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pics/flush-jpa-cache-before-jdbc-call.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>All examples of with annotations to be redone with javaconfig</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,7 +196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -332,16 +482,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.88671875" customWidth="1"/>
     <col min="2" max="2" width="88.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>